--- a/academycity/data/avic/datasets/excel/conference/output/HighTech/2018_GDP_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/HighTech/2018_GDP_o.xlsx
@@ -5138,7 +5138,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -17779,7 +17779,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -21120,7 +21120,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -24584,7 +24584,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -28048,7 +28048,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -31488,7 +31488,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -34928,7 +34928,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -38382,7 +38382,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -43479,7 +43479,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -48753,7 +48753,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -54011,7 +54011,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -56380,7 +56380,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -60912,7 +60912,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -63236,7 +63236,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -67354,7 +67354,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -71688,7 +71688,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
